--- a/Xen Jakaria/Regulator_Drafting_programme/Khejurdangi_Input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1992,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4058,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -6684,7 +6684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -7340,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7546,8 +7546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7936,8 +7936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
